--- a/biology/Histoire de la zoologie et de la botanique/Anatole_Roujou/Anatole_Roujou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anatole_Roujou/Anatole_Roujou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatole Roujou, né le 16 octobre 1841 à Choisy-le-Roi et mort le 14 décembre 1904 à Clermont-Ferrand, est un naturaliste, géologue, archéologue et anthropologue français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né d'un père médecin, Anatole Roujou suit des cours au Muséum d'histoire naturelle avant d'entrer en 1867 comme géologue à la ville de Paris. En 1874, il devient docteur en sciences naturelles à Montpellier avec deux thèses : « Recherches sur les races humaines de la France » et « Étude sur les terrains quaternaires du bassin de la Seine et quelques autres bassin ». Il est ensuite chargé de cours à la Faculté des sciences de Clermont-Ferrand[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né d'un père médecin, Anatole Roujou suit des cours au Muséum d'histoire naturelle avant d'entrer en 1867 comme géologue à la ville de Paris. En 1874, il devient docteur en sciences naturelles à Montpellier avec deux thèses : « Recherches sur les races humaines de la France » et « Étude sur les terrains quaternaires du bassin de la Seine et quelques autres bassin ». Il est ensuite chargé de cours à la Faculté des sciences de Clermont-Ferrand,.
 Il fut membre de la Société d'anthropologie de Paris, de la Société de Borda, de la Société des sciences naturelles de Saône-et-Loire et de la Société scientifique, historique et archéologique de la Corrèze.
-Dans sa nécrologie, le docteur Gaston Charvilhat, membre de la Société préhistorique française, écrit qu'Anatole Roujou fut « le premier qui s'occupa d'une façon sérieuse de l'anthropologie du Puy-de-Dôme et du plateau central »[3].
+Dans sa nécrologie, le docteur Gaston Charvilhat, membre de la Société préhistorique française, écrit qu'Anatole Roujou fut « le premier qui s'occupa d'une façon sérieuse de l'anthropologie du Puy-de-Dôme et du plateau central ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications sélectives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches et études sur les sépultures celtiques des environs de Choisy-le-Roi, 1863.
 Crânes gallo-romains, découverts à St Germain près de Corbeil, Bulletins de la Société d'Anthropologie, 1863.
